--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1215"/>
+  <dimension ref="A1:I1216"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43403,6 +43403,41 @@
         <v>10396700</v>
       </c>
     </row>
+    <row r="1216">
+      <c r="A1216" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1216" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1216" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1216" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1216" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="F1216" t="n">
+        <v>0.635</v>
+      </c>
+      <c r="G1216" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="H1216" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="I1216" t="n">
+        <v>3776200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1216"/>
+  <dimension ref="A1:I1217"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43438,6 +43438,41 @@
         <v>3776200</v>
       </c>
     </row>
+    <row r="1217">
+      <c r="A1217" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1217" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1217" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1217" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1217" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="F1217" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G1217" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1217" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1217" t="n">
+        <v>10228900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43473,6 +43473,41 @@
         <v>10228900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>16291700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43508,6 +43508,41 @@
         <v>16291700</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.595</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>7289300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43543,6 +43543,41 @@
         <v>7289300</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>6770000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43578,6 +43578,41 @@
         <v>6770000</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>4000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43613,6 +43613,41 @@
         <v>4000000</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>3900000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43648,6 +43648,41 @@
         <v>3900000</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.625</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>5922300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43683,6 +43683,41 @@
         <v>5922300</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.615</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>2288200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43718,6 +43718,41 @@
         <v>2288200</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>5635100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43753,6 +43753,41 @@
         <v>5635100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>2568900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43788,6 +43788,41 @@
         <v>2568900</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.605</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1852700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43823,6 +43823,76 @@
         <v>1852700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1714600</v>
+      </c>
+    </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.585</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>3425300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43893,6 +43893,76 @@
         <v>3425300</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.525</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>1230300</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.535</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>724700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43963,6 +43963,41 @@
         <v>724700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>523400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1232"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43998,6 +43998,41 @@
         <v>523400</v>
       </c>
     </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.555</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>572200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44033,6 +44033,41 @@
         <v>572200</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.545</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>407800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44068,6 +44068,41 @@
         <v>407800</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.475</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>3638500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44103,6 +44103,76 @@
         <v>3638500</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.465</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>1551100</v>
+      </c>
+    </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.485</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1021600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1238"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44173,6 +44173,41 @@
         <v>1021600</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>703000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1238"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -44208,6 +44208,41 @@
         <v>703000</v>
       </c>
     </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.445</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1595400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2571"/>
+  <dimension ref="A1:I2572"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90863,6 +90863,41 @@
         <v>1595400</v>
       </c>
     </row>
+    <row r="2572">
+      <c r="A2572" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2572" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2572" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2572" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2572" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="F2572" t="n">
+        <v>0.425</v>
+      </c>
+      <c r="G2572" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="H2572" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2572" t="n">
+        <v>3201600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2572"/>
+  <dimension ref="A1:I2573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90898,6 +90898,41 @@
         <v>3201600</v>
       </c>
     </row>
+    <row r="2573">
+      <c r="A2573" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2573" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2573" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2573" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2573" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F2573" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2573" t="n">
+        <v>0.365</v>
+      </c>
+      <c r="H2573" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="I2573" t="n">
+        <v>1383200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2573"/>
+  <dimension ref="A1:I2574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90933,6 +90933,41 @@
         <v>1383200</v>
       </c>
     </row>
+    <row r="2574">
+      <c r="A2574" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2574" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2574" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2574" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2574" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="F2574" t="n">
+        <v>0.385</v>
+      </c>
+      <c r="G2574" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="H2574" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2574" t="n">
+        <v>481100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2574"/>
+  <dimension ref="A1:I2575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90968,6 +90968,41 @@
         <v>481100</v>
       </c>
     </row>
+    <row r="2575">
+      <c r="A2575" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2575" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2575" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2575" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2575" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2575" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G2575" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2575" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2575" t="n">
+        <v>2489000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2575"/>
+  <dimension ref="A1:I2576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91003,6 +91003,41 @@
         <v>2489000</v>
       </c>
     </row>
+    <row r="2576">
+      <c r="A2576" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2576" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2576" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2576" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2576" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="F2576" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2576" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2576" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I2576" t="n">
+        <v>3239100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2576"/>
+  <dimension ref="A1:I2577"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91038,6 +91038,41 @@
         <v>3239100</v>
       </c>
     </row>
+    <row r="2577">
+      <c r="A2577" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2577" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2577" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2577" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2577" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F2577" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G2577" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H2577" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I2577" t="n">
+        <v>2773000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91073,6 +91073,41 @@
         <v>2773000</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>0.255</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>2511300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91108,6 +91108,41 @@
         <v>2511300</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>2551700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91143,6 +91143,41 @@
         <v>2551700</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>689700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2580"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91178,6 +91178,41 @@
         <v>689700</v>
       </c>
     </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>1268800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2581"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91213,6 +91213,41 @@
         <v>1268800</v>
       </c>
     </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>282100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91248,6 +91248,41 @@
         <v>282100</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>1886500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91283,6 +91283,41 @@
         <v>1886500</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>2943800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91318,6 +91318,41 @@
         <v>2943800</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>2331600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7676.xlsx
+++ b/data/7676.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91353,6 +91353,41 @@
         <v>2331600</v>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>7676</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>GUNUNG</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>0.395</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>0.375</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>1763300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
